--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42960,6 +42960,43 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42997,6 +42997,41 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>13100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43032,6 +43032,43 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43069,6 +43069,43 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43106,6 +43106,43 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43143,6 +43143,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43180,6 +43180,43 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43217,6 +43217,41 @@
         </is>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43252,6 +43252,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43287,6 +43287,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43324,6 +43324,78 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43396,6 +43396,80 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43470,6 +43470,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43507,6 +43507,41 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43542,6 +43542,43 @@
         <v>130000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43579,6 +43579,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43616,6 +43616,41 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>405000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2130"/>
+  <dimension ref="A1:I2131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75746,6 +75746,41 @@
         <v>405000</v>
       </c>
     </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2131"/>
+  <dimension ref="A1:I2132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75781,6 +75781,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75818,6 +75818,41 @@
         </is>
       </c>
     </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2133"/>
+  <dimension ref="A1:I2134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75853,6 +75853,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>18400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2134"/>
+  <dimension ref="A1:I2135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75888,6 +75888,43 @@
         <v>18400</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2135"/>
+  <dimension ref="A1:I2136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75925,6 +75925,41 @@
         </is>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2136" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2136"/>
+  <dimension ref="A1:I2137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75960,6 +75960,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2137"/>
+  <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75995,6 +75995,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2138" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2138"/>
+  <dimension ref="A1:I2139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76030,6 +76030,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2139"/>
+  <dimension ref="A1:I2140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76067,6 +76067,43 @@
         </is>
       </c>
     </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2140"/>
+  <dimension ref="A1:I2141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76104,6 +76104,43 @@
         </is>
       </c>
     </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2141"/>
+  <dimension ref="A1:I2142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76141,6 +76141,43 @@
         </is>
       </c>
     </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2142"/>
+  <dimension ref="A1:I2143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76178,6 +76178,41 @@
         </is>
       </c>
     </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2143" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9393.xlsx
+++ b/data/9393.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2143"/>
+  <dimension ref="A1:I2144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76213,6 +76213,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>9393</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>ITRONIC</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2144" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
